--- a/biology/Zoologie/Hydrobius_fuscipes/Hydrobius_fuscipes.xlsx
+++ b/biology/Zoologie/Hydrobius_fuscipes/Hydrobius_fuscipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hydrobius fuscipes est une espèce d'insectes de l'ordre des coléoptères, de la famille des Hydrophilidae, de la sous-famille des Hydrophilinae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Long d'environ 7 mm, il a les élytres noirs aux stries finement ponctuées ; sur les individus vivants, des reflets bleus ou verts[1] sont visibles en pleine lumière ; ses longues pattes sont brun orangé, les fémurs postérieurs velus. Les fins palpes maxillaires bruns dépassent en longueur les antennes qui se terminent par une massue brune.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Long d'environ 7 mm, il a les élytres noirs aux stries finement ponctuées ; sur les individus vivants, des reflets bleus ou verts sont visibles en pleine lumière ; ses longues pattes sont brun orangé, les fémurs postérieurs velus. Les fins palpes maxillaires bruns dépassent en longueur les antennes qui se terminent par une massue brune.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Vaste aire de répartition dans la partie nord de l'hémisphère nord : Amérique du Nord, Afrique du Nord, Eurasie : en Europe du Portugal à la Scandinavie, à la Roumanie, à la Grèce. Commun en France et en Corse.
 </t>
@@ -573,7 +589,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Petites pièces d'eau douce calme ou à faible courant à la végétation aquatique et rivulaire riche. Etangs comme celui de Vendres.
 </t>
@@ -604,7 +622,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes visibles toute l'année (si les conditions climatiques le permettent) se nourrissent de divers déchets. Les larves carnivores mangent de petites proies aquatiques.
 </t>
